--- a/public/uploads/file.xlsx
+++ b/public/uploads/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL M - ATRIA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeari\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A85560B-131F-44C9-B84C-075FD2D66FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2306BF-5279-4C24-84EE-32B2CB505EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="4665" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga diciembre" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>nombre</t>
   </si>
@@ -40,62 +40,42 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>ESTELLA MENDEZ DE SANABRIA</t>
-  </si>
-  <si>
-    <t>FUNERARIA CRISTO REY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEREMONIA EN SALA </t>
-  </si>
-  <si>
-    <t>CREMACION CON CENIZARIO X 10 AÑOS</t>
-  </si>
-  <si>
-    <t>11/30/2023</t>
-  </si>
-  <si>
-    <t>LUCAS MANUEL VERA ACOSTA</t>
-  </si>
-  <si>
-    <t>FUNERARIA GAVIRIA 43</t>
-  </si>
-  <si>
-    <t>IGLESIA DIVINO SALVADOR</t>
-  </si>
-  <si>
     <t>CREMACION</t>
   </si>
   <si>
-    <t>TILIA CASALLAS BENITEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPILLAS DE LA FE </t>
-  </si>
-  <si>
-    <t>SANTA MONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO CASTAÑEDA REMACHE </t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>CONFERENCIA EN SALA</t>
-  </si>
-  <si>
-    <t>SOLUCION LOTE</t>
+    <t>ABAD CARRILLO GARCIA</t>
+  </si>
+  <si>
+    <t>JAIME YESID PARRAGA RAMIREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREMACION </t>
+  </si>
+  <si>
+    <t>RECORDAR SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>CAPILLAS DE LA FE</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>SOACHA</t>
+  </si>
+  <si>
+    <t>02/20/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +206,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,10 +560,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,19 +916,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,13 +955,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>0.41666666666666669</v>
@@ -984,70 +970,32 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>